--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_site_id_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_site_id_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:3258f798-4b5a-4e35-8457-8bf50e76addb"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:a3476d79-9191-48d3-89dd-0e57f6c7bb88"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
